--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3139067.331732756</v>
+        <v>3157442.021198877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800624</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8589681.258093165</v>
+        <v>8589681.258093163</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.8779405148831</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>349.4028632325519</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>14.86965341517863</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5797976477835</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142896</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>124.5390602831382</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.60424748687889</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>109.6230087804338</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>223.1544494232438</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>349.6883224694402</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.706926911161699</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>89.61224061156291</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>100.7036032970146</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>115.5269768002181</v>
+        <v>17.72817936157444</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>43.87602766265873</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>79.29281606331593</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>143.4623085010281</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>101.0930119927695</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>26.04868145380733</v>
+        <v>119.0929986500079</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>33.3514698018592</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,13 +2764,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>155.0934672678386</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634821</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>17.66197951902801</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3004,19 +3004,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.7512870710572</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>63.51701142424668</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>70.1353187382977</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3326,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784713</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>115.2673173526914</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>67.88331110999847</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,19 +3715,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6987677450487</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>2.996734835228662</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,19 +3895,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>135.4364069352796</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.35146980185925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,16 +4144,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>157.7020018439428</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,13 +4192,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185925</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>567.286643657864</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>567.286643657864</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>567.286643657864</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>560.3411429086606</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1936.146930626913</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1936.146930626913</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1546.007598651101</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>68.96283375488832</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>68.96283375488832</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>509.2375219814871</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>509.2375219814871</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U4" t="n">
-        <v>509.2375219814871</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V4" t="n">
-        <v>509.2375219814871</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W4" t="n">
-        <v>509.2375219814871</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X4" t="n">
-        <v>281.2479710834698</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>250.611298585128</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.91501986716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>962.91501986716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>604.6493212604096</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>604.6493212604096</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>597.7038205112061</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>179.740012409393</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.654191907093</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.514859931282</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.6060931634762</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C7" t="n">
-        <v>396.6060931634762</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511404</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X7" t="n">
-        <v>617.3986723070063</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y7" t="n">
-        <v>396.6060931634762</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
         <v>548.527081850681</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.387305656314</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.166777909405</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="C10" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036446</v>
@@ -4987,25 +4987,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>512.1163924274641</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="W10" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="X10" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551155</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.942782082032</v>
+        <v>184.2708856551155</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341675</v>
+        <v>659.3731057211725</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2037.143944996364</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>821.846685011157</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C13" t="n">
-        <v>821.846685011157</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988212</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164281</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
         <v>208.7516828383384</v>
@@ -5194,16 +5194,16 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1297.323752360574</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1297.323752360574</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1297.323752360574</v>
+        <v>1062.334940498108</v>
       </c>
       <c r="V13" t="n">
-        <v>1042.639264154687</v>
+        <v>807.6504522922215</v>
       </c>
       <c r="W13" t="n">
-        <v>1042.639264154687</v>
+        <v>807.6504522922215</v>
       </c>
       <c r="X13" t="n">
-        <v>1042.639264154687</v>
+        <v>579.6609013942042</v>
       </c>
       <c r="Y13" t="n">
-        <v>821.846685011157</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5273,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,7 +5312,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5343,37 +5343,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.505047571597</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M15" t="n">
-        <v>1333.825180851559</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.687808515591</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434022</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>755.1831334811264</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201021</v>
+        <v>527.1935825831091</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>509.2863307027309</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207829</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>2649.889045452863</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L18" t="n">
-        <v>3263.786115209752</v>
+        <v>3400.7765748652</v>
       </c>
       <c r="M18" t="n">
-        <v>3571.106248489713</v>
+        <v>3959.296496892129</v>
       </c>
       <c r="N18" t="n">
-        <v>3973.880983602625</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O18" t="n">
-        <v>4253.421048821322</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P18" t="n">
         <v>4773.721670557069</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>460.5891336617999</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>291.652950733893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>141.5363113215573</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>141.5363113215573</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>141.5363113215573</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>141.5363113215573</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>909.3712637033474</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W19" t="n">
-        <v>909.3712637033474</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X19" t="n">
-        <v>681.38171280533</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.5891336617999</v>
+        <v>416.5712828402495</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,13 +5765,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211722</v>
+        <v>796.3635653766205</v>
       </c>
       <c r="M21" t="n">
-        <v>1124.115218311523</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.977845975555</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2379.156885434022</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536.9315552689005</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C22" t="n">
-        <v>536.9315552689005</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D22" t="n">
-        <v>536.9315552689005</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>389.0184616865074</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1285141885971</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1285141885971</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,10 +5911,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471194</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347409</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347409</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>985.713685310448</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="X22" t="n">
-        <v>757.7241344124307</v>
+        <v>429.2835647425823</v>
       </c>
       <c r="Y22" t="n">
-        <v>536.9315552689005</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,37 +5972,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805459</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028479</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899126</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>2896.654173359327</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>3644.018355938592</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N24" t="n">
-        <v>3973.880983602625</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1361.529367671438</v>
+        <v>1267.545208887397</v>
       </c>
       <c r="T25" t="n">
-        <v>1137.743952460944</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="U25" t="n">
-        <v>848.6153136745022</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V25" t="n">
-        <v>593.9308254686154</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W25" t="n">
-        <v>593.9308254686154</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X25" t="n">
-        <v>593.9308254686154</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>593.9308254686154</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845923</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2279.445761859784</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2484.468242641994</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>130.9054447954972</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C28" t="n">
-        <v>130.9054447954972</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>130.9054447954972</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241958</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
         <v>1187.921157035281</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247865</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383447</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324578</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W28" t="n">
-        <v>130.9054447954972</v>
+        <v>898.5039869983202</v>
       </c>
       <c r="X28" t="n">
-        <v>130.9054447954972</v>
+        <v>898.5039869983202</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.9054447954972</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6485,28 +6485,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6528,28 +6528,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341678</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.91112712663</v>
       </c>
       <c r="N30" t="n">
         <v>2051.878056918008</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4015.911034827086</v>
+        <v>3885.536955557528</v>
       </c>
       <c r="C31" t="n">
-        <v>4015.911034827086</v>
+        <v>3885.536955557528</v>
       </c>
       <c r="D31" t="n">
-        <v>4015.911034827086</v>
+        <v>3735.420316145193</v>
       </c>
       <c r="E31" t="n">
-        <v>3867.997941244693</v>
+        <v>3735.420316145193</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746783</v>
+        <v>3588.530368647283</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746783</v>
+        <v>3588.530368647283</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294726</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916674</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625195</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636324</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403507</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929844</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="T31" t="n">
-        <v>4660.934562929844</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="U31" t="n">
-        <v>4371.805924143402</v>
+        <v>4549.859459491672</v>
       </c>
       <c r="V31" t="n">
-        <v>4371.805924143402</v>
+        <v>4295.174971285785</v>
       </c>
       <c r="W31" t="n">
-        <v>4371.805924143402</v>
+        <v>4295.174971285785</v>
       </c>
       <c r="X31" t="n">
-        <v>4236.703613970617</v>
+        <v>4067.185420387768</v>
       </c>
       <c r="Y31" t="n">
-        <v>4015.911034827086</v>
+        <v>4067.185420387768</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701562</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>796.3635653766206</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507007</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N33" t="n">
-        <v>1800.678268171039</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O33" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.0269196489031</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C34" t="n">
-        <v>423.0269196489031</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D34" t="n">
-        <v>272.9102802365674</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>272.9102802365674</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>272.9102802365674</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
@@ -6862,10 +6862,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6880,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>1187.921157035281</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V34" t="n">
-        <v>933.2366688293938</v>
+        <v>915.1584602596563</v>
       </c>
       <c r="W34" t="n">
-        <v>643.8194987924333</v>
+        <v>625.7412902226956</v>
       </c>
       <c r="X34" t="n">
-        <v>643.8194987924333</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="Y34" t="n">
-        <v>423.0269196489031</v>
+        <v>397.7517393246783</v>
       </c>
     </row>
     <row r="35">
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231266</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.97260014187</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465304</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>3224.712326690736</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>3050.259297409609</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>2742.087432742902</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>2595.552874769787</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>2458.626196373972</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>2362.68132280566</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>2375.989236263801</v>
       </c>
       <c r="K36" t="n">
-        <v>2649.889045452863</v>
+        <v>2525.058920465861</v>
       </c>
       <c r="L36" t="n">
-        <v>2972.321823543876</v>
+        <v>2771.824048372325</v>
       </c>
       <c r="M36" t="n">
-        <v>3740.689969936338</v>
+        <v>3540.192194764787</v>
       </c>
       <c r="N36" t="n">
-        <v>4070.552597600371</v>
+        <v>4289.159124556165</v>
       </c>
       <c r="O36" t="n">
-        <v>4350.092662819068</v>
+        <v>4568.699189774862</v>
       </c>
       <c r="P36" t="n">
-        <v>4555.115143601278</v>
+        <v>4773.721670557072</v>
       </c>
       <c r="Q36" t="n">
-        <v>4850.224560916992</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014295</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>4297.928927641235</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>4062.776819409492</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>3808.53946268129</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>3600.687962475758</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>3392.927663710804</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>460.5891336617999</v>
+        <v>493.3586382081052</v>
       </c>
       <c r="C37" t="n">
-        <v>460.5891336617999</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="D37" t="n">
-        <v>460.5891336617999</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E37" t="n">
-        <v>312.6760400794068</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F37" t="n">
-        <v>165.7860925814964</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T37" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U37" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V37" t="n">
-        <v>909.3712637033474</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="W37" t="n">
-        <v>909.3712637033474</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="X37" t="n">
-        <v>681.38171280533</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="Y37" t="n">
-        <v>460.5891336617999</v>
+        <v>675.0071030383449</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,37 +7163,37 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7214,10 +7214,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7257,16 +7257,16 @@
         <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341675</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7363,19 +7363,19 @@
         <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>926.0201707730128</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V40" t="n">
-        <v>926.0201707730128</v>
+        <v>1072.183840378892</v>
       </c>
       <c r="W40" t="n">
-        <v>636.6030007360521</v>
+        <v>1072.183840378892</v>
       </c>
       <c r="X40" t="n">
-        <v>636.6030007360521</v>
+        <v>844.1942894808744</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>844.1942894808744</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>2649.889045452865</v>
       </c>
       <c r="L42" t="n">
-        <v>806.1650729342607</v>
+        <v>3263.786115209753</v>
       </c>
       <c r="M42" t="n">
-        <v>1113.485206214222</v>
+        <v>3571.106248489715</v>
       </c>
       <c r="N42" t="n">
-        <v>1443.347833878255</v>
+        <v>3900.968876153748</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>4242.791036724024</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>4763.091658459771</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>4850.224560916994</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>4034.429209302939</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>3865.493026375033</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>3865.493026375033</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>3717.579932792639</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035281</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247865</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383447</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324578</v>
+        <v>4460.650830789677</v>
       </c>
       <c r="W43" t="n">
-        <v>130.9054447954972</v>
+        <v>4171.233660752717</v>
       </c>
       <c r="X43" t="n">
-        <v>130.9054447954972</v>
+        <v>4171.233660752717</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>4171.233660752717</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7670,7 +7670,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,31 +7713,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341675</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
         <v>2331.418122136705</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>514.9365816937667</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>514.9365816937667</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>514.9365816937667</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>514.9365816937667</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>368.0466341958563</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7828,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954972</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>696.5850465240064</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>87.16935584025299</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>73.64859338270611</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.872441903932</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>253.7371603504721</v>
       </c>
       <c r="N18" t="n">
-        <v>73.64859338270571</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>159.0121003135238</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>158.872441903932</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9723,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>444.4889386861651</v>
+        <v>15.83804904622781</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659902</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>52.49733361305121</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298014</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,10 +10197,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229576</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165105</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714801</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,25 +10431,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>158.8724419039321</v>
       </c>
       <c r="P33" t="n">
-        <v>242.9997743936049</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,19 +10662,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>76.43196988338315</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165101</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,22 +10908,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>360.502686290725</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>213.2603911806616</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627438</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>274.3657496970639</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>62.91120742583672</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599038</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11373,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>127.6461250100638</v>
       </c>
       <c r="N45" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>108.3085693720403</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>185.5337491015628</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>103.0576765518767</v>
+        <v>200.8564739905204</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>105.0378007048774</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>146.4168393257212</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>5.45151986650805</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>185.4299863438215</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,10 +24373,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,25 +24412,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>171.8721285297959</v>
+        <v>78.82781133359531</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>113.08249284471</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,13 +24652,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>63.49118608425619</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.2518488485081</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>91.9583683179799</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>102.9765570391309</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25120,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>182.0023245855303</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>51.97950374593638</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>98.61025735337911</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,13 +25549,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,19 +25603,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.5385846535287</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>249.1409084885993</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,19 +25783,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>44.3955732466577</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25804,7 +25804,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.2331835502355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26032,16 +26032,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>8.791566619434832</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,13 +26080,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871779</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896024</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896024</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.4015541043</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.726386926748091e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230223</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="L4" t="n">
-        <v>31338.36479029915</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="M4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230222</v>
       </c>
       <c r="N4" t="n">
-        <v>31338.3647902992</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="O4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230225</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029919</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26470,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871668</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-151960.5513785818</v>
+        <v>-149432.2302151391</v>
       </c>
       <c r="C6" t="n">
-        <v>438007.3278359629</v>
+        <v>440535.6489994056</v>
       </c>
       <c r="D6" t="n">
-        <v>438007.327835963</v>
+        <v>440535.6489994055</v>
       </c>
       <c r="E6" t="n">
-        <v>16263.67433819278</v>
+        <v>18298.49357618931</v>
       </c>
       <c r="F6" t="n">
-        <v>541423.7108150892</v>
+        <v>543458.5300530858</v>
       </c>
       <c r="G6" t="n">
-        <v>541423.7108150892</v>
+        <v>543458.530053086</v>
       </c>
       <c r="H6" t="n">
-        <v>541423.7108150888</v>
+        <v>543458.530053086</v>
       </c>
       <c r="I6" t="n">
-        <v>541423.7108150889</v>
+        <v>543458.5300530858</v>
       </c>
       <c r="J6" t="n">
-        <v>365000.4916224955</v>
+        <v>367035.3108604926</v>
       </c>
       <c r="K6" t="n">
-        <v>541423.7108150892</v>
+        <v>543458.5300530855</v>
       </c>
       <c r="L6" t="n">
-        <v>541423.7108150886</v>
+        <v>543458.5300530859</v>
       </c>
       <c r="M6" t="n">
-        <v>406622.6955812518</v>
+        <v>408657.5148192485</v>
       </c>
       <c r="N6" t="n">
-        <v>541423.7108150892</v>
+        <v>543458.530053086</v>
       </c>
       <c r="O6" t="n">
-        <v>541423.7108150887</v>
+        <v>543458.5300530854</v>
       </c>
       <c r="P6" t="n">
-        <v>541423.7108150889</v>
+        <v>543458.5300530861</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
     </row>
     <row r="4">
@@ -26790,16 +26790,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26811,25 +26811,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
+        <v>1215.213643253573</v>
+      </c>
+      <c r="K4" t="n">
         <v>1215.213643253574</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1215.213643253574</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990185</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.855901148597525</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>64.38130678824308</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>133.7458196030337</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,10 +27585,10 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>24.56574130223538</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>58.74216000639336</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>199.3837124812189</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,31 +27816,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.4308579712054</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>116.0866466086033</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>28.06971808504551</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>36.54961618661343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>19.59084822180881</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3281785469226</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-5.268850791002159e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.549659035785507e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.56319401867222e-12</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31771,13 +31771,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31792,7 +31792,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,10 +31908,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31920,10 +31920,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31932,7 +31932,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,13 +31944,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32008,13 +32008,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32029,7 +32029,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32084,7 +32084,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,10 +32145,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32157,10 +32157,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32169,7 +32169,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,13 +32181,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32482,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32503,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32558,7 +32558,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32619,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32631,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32643,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32655,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33029,19 +33029,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33050,13 +33050,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33266,19 +33266,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33287,13 +33287,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33418,40 +33418,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33503,19 +33503,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33524,13 +33524,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33655,40 +33655,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33740,19 +33740,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33761,13 +33761,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33892,40 +33892,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
@@ -33977,19 +33977,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710957</v>
@@ -33998,13 +33998,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34129,40 +34129,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
@@ -34214,19 +34214,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710957</v>
@@ -34235,13 +34235,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
         <v>34.18755300444946</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
@@ -34451,19 +34451,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710957</v>
@@ -34472,13 +34472,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109073</v>
@@ -35419,19 +35419,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879393</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>294.2627707717778</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415063</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35656,19 +35656,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>356.0122956238143</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>246.8854746890061</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109073</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>564.1615374009385</v>
       </c>
       <c r="N18" t="n">
-        <v>406.8431667807187</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36130,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>469.4364773639902</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>246.8854746890061</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>754.9133157366315</v>
+        <v>326.2624260966943</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,19 +36522,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502023</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>140.5103663981254</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,19 +36759,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734239</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145236</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36996,19 +36996,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109101</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>441.2361441450404</v>
       </c>
       <c r="P33" t="n">
-        <v>450.0931893251296</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37233,19 +37233,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>325.6896748394075</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145231</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37470,19 +37470,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>670.9270633411913</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786747</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37707,19 +37707,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951457</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>523.6234546530883</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>345.2749096669451</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37944,19 +37944,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>438.0705020605303</v>
       </c>
       <c r="N45" t="n">
-        <v>362.6699330377949</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
@@ -38181,19 +38181,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3232971.690863685</v>
+        <v>3225954.675971972</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800612</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>226.501034687848</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>133.6483968717187</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>65.29997400339114</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>218.8739468244158</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>166.0977092225419</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>238.5110202991092</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>9.461970681989216</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>153.9967102004014</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>315.4004503675671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>82.45053986357377</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385024</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>140.0424879565123</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>122.65197883716</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>6.445277085911673</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>170.3137339051583</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>118.4898845065096</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
-        <v>125.5343352099078</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>29.62324249224028</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>109.7395205132388</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>49.53862743923484</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274097</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014454</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>159.6158243435928</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>281.803309427017</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>172.4117177834061</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>188.1607094910709</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113181</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>78.67087937295032</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>163.3855388872492</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>17.01291131886014</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -3717,10 +3717,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>69.73503834540128</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>114.930904319359</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>28.22523322473833</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.3160057778002</v>
+        <v>923.1150787952338</v>
       </c>
       <c r="C2" t="n">
-        <v>777.3160057778002</v>
+        <v>554.1525618548221</v>
       </c>
       <c r="D2" t="n">
-        <v>777.3160057778002</v>
+        <v>195.8868632480716</v>
       </c>
       <c r="E2" t="n">
-        <v>777.3160057778002</v>
+        <v>195.8868632480716</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>188.9413624988682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.3160057778002</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,16 +4412,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>270.0191909330953</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>119.9025515207595</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>477.6272702879189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>477.6272702879189</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>1171.95857907428</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1171.95857907428</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>786.1703264760358</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>375.1844216864283</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1837.140060718708</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1596.219838194355</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1206.080506218543</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1659.880644283887</v>
+        <v>1336.435086552838</v>
       </c>
       <c r="C8" t="n">
-        <v>1290.918127343475</v>
+        <v>967.4725696124262</v>
       </c>
       <c r="D8" t="n">
-        <v>932.6524287367247</v>
+        <v>609.2068710056758</v>
       </c>
       <c r="E8" t="n">
-        <v>546.8641761384804</v>
+        <v>223.4186184074316</v>
       </c>
       <c r="F8" t="n">
-        <v>539.9186753892769</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>525.9952713278678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4810,13 +4810,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>2050.019976259699</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1659.880644283887</v>
+        <v>1723.03492661696</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4883,43 +4883,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
         <v>99.59950625323012</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>467.2820328946706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>467.2820328946706</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X10" t="n">
-        <v>467.2820328946706</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5077,16 +5077,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1375.025382843599</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>862.1113288466635</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V13" t="n">
-        <v>607.4268406407766</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W13" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="14">
@@ -5260,37 +5260,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>292.8275092861696</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>539.5926371926337</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>846.9127704725952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>566.6879222525852</v>
+        <v>552.3735683412849</v>
       </c>
       <c r="C16" t="n">
-        <v>397.7517393246783</v>
+        <v>383.437385413378</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.437385413378</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.437385413378</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>383.437385413378</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>215.2620637331986</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>748.3363870828249</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y16" t="n">
-        <v>748.3363870828249</v>
+        <v>734.0220331715246</v>
       </c>
     </row>
     <row r="17">
@@ -5497,49 +5497,49 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823853</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514152</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515101</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,10 +5548,10 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3033.644633014774</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3340.964766294735</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>4145.376344558885</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4424.916409777581</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.9038434870633</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>216.9038434870633</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>216.9038434870633</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.9162705579</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.9162705579</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771458</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655713</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286107</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870633</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3465.79489128174</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>4270.206469545889</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4558.069177677561</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4763.09165845977</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4850.224560916993</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>527.0436439308536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>527.0436439308536</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119725</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909231</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1037.253393111344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1037.253393111344</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>747.8362230743837</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>747.8362230743837</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>527.0436439308536</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805472</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277025</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341659</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141267</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678159</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1841.189502980817</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2361.490124716564</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6104,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>434.3285960683721</v>
+        <v>238.6741500022174</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.9162705579</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.9162705579</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.9162705579</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1388.068270039477</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1133.38378183359</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W25" t="n">
-        <v>843.9666117966292</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X25" t="n">
-        <v>615.9770608986119</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y25" t="n">
-        <v>615.9770608986119</v>
+        <v>420.3226148324571</v>
       </c>
     </row>
     <row r="26">
@@ -6205,52 +6205,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155891</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823865</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514153</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795212</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256432</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277025</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341659</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.46647865386</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.87805691801</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136707</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6341,7 +6341,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3789.665185838028</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3620.729002910121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.15539391668</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625201</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403512</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431059</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436456</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4549.85945949167</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>4549.85945949167</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4260.730820705228</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4260.730820705228</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>3971.313650668268</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3971.313650668268</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155891</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822465</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899121</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372321</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292015</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556165</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774861</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>670.5144361002995</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C31" t="n">
-        <v>670.5144361002995</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D31" t="n">
-        <v>520.3977966879637</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E31" t="n">
-        <v>520.3977966879637</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>520.3977966879637</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903952</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383385</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.063975947118</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119725</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035277</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.921157035277</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1187.921157035277</v>
+        <v>903.2713495332425</v>
       </c>
       <c r="V31" t="n">
-        <v>1187.921157035277</v>
+        <v>648.5868613273557</v>
       </c>
       <c r="W31" t="n">
-        <v>898.5039869983168</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X31" t="n">
-        <v>670.5144361002995</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y31" t="n">
-        <v>670.5144361002995</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,34 +6718,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108312</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3033.644633014776</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4058.219498354872</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C34" t="n">
-        <v>3889.283315426965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D34" t="n">
-        <v>3889.283315426965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E34" t="n">
-        <v>3889.283315426965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426965</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4749.779469576119</v>
+        <v>1308.854947839649</v>
       </c>
       <c r="U34" t="n">
-        <v>4749.779469576119</v>
+        <v>1019.726309053207</v>
       </c>
       <c r="V34" t="n">
-        <v>4749.779469576119</v>
+        <v>765.0418208473204</v>
       </c>
       <c r="W34" t="n">
-        <v>4460.362299539158</v>
+        <v>475.6246508103599</v>
       </c>
       <c r="X34" t="n">
-        <v>4232.372748641141</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y34" t="n">
-        <v>4232.372748641141</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="35">
@@ -6913,58 +6913,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6976,13 +6976,13 @@
         <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>755.183133481126</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C37" t="n">
-        <v>586.2469505532191</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D37" t="n">
-        <v>436.1303111408834</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E37" t="n">
-        <v>288.2172175584902</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>755.183133481126</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="W37" t="n">
-        <v>755.183133481126</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X37" t="n">
-        <v>755.183133481126</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y37" t="n">
-        <v>755.183133481126</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7204,22 +7204,22 @@
         <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>964.135741824786</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>964.135741824786</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>674.7185717878253</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>446.729020889808</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.9364417462779</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1099.417155020476</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M42" t="n">
-        <v>1406.737288300438</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>462.4595652127118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>462.4595652127118</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488384</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>644.1080300429516</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>644.1080300429516</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>644.1080300429516</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>3558.742788710867</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>3888.6054163749</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>4558.069177677559</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>4763.091658459769</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>4850.224560916992</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>213.3089140050929</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>1046.700508672316</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>43.6598726146247</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>5.100663089359955</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>145.2351313103839</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714903</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>8.406710013106476</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714912</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>176.7176547498502</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720821</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229632</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659912</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229623</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445237</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,25 +10433,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
-        <v>145.2351313103786</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>306.114737013996</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>360.5026862907255</v>
+        <v>288.4091825776761</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>306.114737013996</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,25 +11381,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>113.6026921294539</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>26.45108050686531</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.26883114644322</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.4685512816245</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.39592148387888</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>27.94407814005957</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
-        <v>160.7030171886695</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>137.6235786063876</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>176.4978318853385</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>116.9549410241428</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>6.877744119784808</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>4.434042971560302</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>7.420262398531236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>33.38685156731836</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>66.75016864998092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>88.7521044365788</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>129.421051327709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>78.88043467281108</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>51.56266414401857</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>223.9124100990897</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="J2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="L2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="G2" t="n">
-        <v>664749.4015541055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541056</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541056</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541049</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.401554105</v>
       </c>
     </row>
     <row r="3">
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.117428989042916e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230237</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230241</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230246</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.5455523024</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
@@ -26487,28 +26487,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151389</v>
+        <v>-149432.2302151388</v>
       </c>
       <c r="C6" t="n">
-        <v>440535.6489994052</v>
+        <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
-        <v>440535.6489994057</v>
+        <v>440535.6489994053</v>
       </c>
       <c r="E6" t="n">
-        <v>18298.49357618981</v>
+        <v>17323.90231646798</v>
       </c>
       <c r="F6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933641</v>
       </c>
       <c r="G6" t="n">
-        <v>543458.5300530874</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="H6" t="n">
-        <v>543458.5300530867</v>
+        <v>542483.9387933643</v>
       </c>
       <c r="I6" t="n">
-        <v>543458.5300530865</v>
+        <v>542483.9387933641</v>
       </c>
       <c r="J6" t="n">
-        <v>367035.3108604938</v>
+        <v>366060.7196007713</v>
       </c>
       <c r="K6" t="n">
-        <v>543458.5300530866</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="L6" t="n">
-        <v>543458.5300530847</v>
+        <v>542483.9387933642</v>
       </c>
       <c r="M6" t="n">
-        <v>408657.5148192489</v>
+        <v>407682.923559527</v>
       </c>
       <c r="N6" t="n">
-        <v>543458.5300530859</v>
+        <v>542483.9387933643</v>
       </c>
       <c r="O6" t="n">
-        <v>543458.5300530856</v>
+        <v>542483.938793364</v>
       </c>
       <c r="P6" t="n">
-        <v>543458.5300530861</v>
+        <v>542483.9387933642</v>
       </c>
     </row>
   </sheetData>
@@ -26700,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.419150020582837e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540988</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.099827253535724e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.099827253535724e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>180.3750110538635</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>280.1357731490763</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>81.13398864317803</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>6.161158633668435</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>247.6864607982531</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>131.2200803793598</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6835682680297</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>252.87933554131</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>8.522322396790059</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>129.6949990864451</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>108.5731239040509</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.708507965844855e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29340,7 +29340,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361477</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263747</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337658</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443611</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444939</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304431</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565509</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927176</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540877</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946984</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.490283364749</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104635</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.7861055513541</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386723</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127054</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724838</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813454</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855519</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677459</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361477</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263747</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.105041346907</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337658</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892234</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351801</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,7 +34792,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,7 +35260,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>354.084249665091</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35661,7 +35661,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>155.6761016772992</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
@@ -35737,19 +35737,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415657</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>352.328546241908</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109192</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415657</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>290.7704122542139</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315241</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686845</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109201</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504655</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178369</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714612</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>264.7306875349239</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415158</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502042</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349773</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879387</v>
+        <v>384.9870895382559</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734287</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415657</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315241</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303322</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109063</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221107</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081108</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951463</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109115</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502115</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349773</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734278</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415657</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315241</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507373</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556535</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299103</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118005</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187453</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
-        <v>455.6595083608449</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>555.3724419700203</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>609.7603912467498</v>
+        <v>537.6668875337003</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>555.3724419700203</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38101,25 +38101,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>424.0270691799201</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225954.675971972</v>
+        <v>3230893.938821005</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8589681.258093165</v>
+        <v>8589681.258093167</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>194.7127856872527</v>
       </c>
       <c r="G2" t="n">
-        <v>133.6483968717187</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.29997400339114</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>274.487665874544</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>166.0977092225419</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>3.10299853296011</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,16 +1068,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>30.60408762095413</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>153.9967102004014</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>136.1916198885551</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>177.9498744325401</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>140.0424879565123</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>140.0472821702694</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>6.445277085911673</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>113.901614843889</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>206.8064269214864</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>29.62324249224028</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>145.1189185490262</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>281.803309427017</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>188.1607094910709</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>173.4452997056378</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>163.3855388872492</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>114.930904319359</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>194.0575819782603</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>923.1150787952338</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C2" t="n">
-        <v>554.1525618548221</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="D2" t="n">
-        <v>195.8868632480716</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="E2" t="n">
-        <v>195.8868632480716</v>
+        <v>995.7810913884502</v>
       </c>
       <c r="F2" t="n">
-        <v>188.9413624988682</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.9553738610022</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C4" t="n">
-        <v>270.0191909330953</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>119.9025515207595</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610022</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610022</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9553738610022</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.921096014692</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>1171.95857907428</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.95857907428</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="E5" t="n">
-        <v>786.1703264760358</v>
+        <v>886.0270366642701</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1844216864283</v>
+        <v>475.0411318746625</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>57.07732377284941</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>57.07732377284941</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284806</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1540.921096014692</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.921096014692</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.921096014692</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1336.435086552838</v>
+        <v>1865.381229508782</v>
       </c>
       <c r="C8" t="n">
-        <v>967.4725696124262</v>
+        <v>1496.41871256837</v>
       </c>
       <c r="D8" t="n">
-        <v>609.2068710056758</v>
+        <v>1138.15301396162</v>
       </c>
       <c r="E8" t="n">
-        <v>223.4186184074316</v>
+        <v>752.3647613633757</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>341.3788565737681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>327.455452512359</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>2113.174258592771</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1723.03492661696</v>
+        <v>2251.981069572904</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="W10" t="n">
-        <v>548.3816362947775</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>590.5616913897119</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,19 +5041,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C13" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D13" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>238.6741500022174</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1246.379265937637</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>957.2506271511957</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324571</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324571</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324571</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110095</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3735683412849</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C16" t="n">
-        <v>383.437385413378</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D16" t="n">
-        <v>383.437385413378</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E16" t="n">
-        <v>383.437385413378</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>383.437385413378</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>215.2620637331986</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1383.864134351954</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1160.078719141459</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1160.078719141459</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352015</v>
+        <v>905.3942309355725</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150548</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150548</v>
+        <v>615.9770608986119</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715246</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,16 +5500,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5524,7 +5524,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5700,19 +5700,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
         <v>97.21709146028584</v>
@@ -5731,22 +5731,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,28 +5770,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5968,49 +5968,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.6741500022174</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="W25" t="n">
-        <v>420.3226148324571</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="X25" t="n">
-        <v>420.3226148324571</v>
+        <v>952.1277621221484</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
         <v>904.3190116155888</v>
@@ -6220,10 +6220,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
@@ -6232,40 +6232,40 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6451,46 +6451,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6539,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2050.644882483981</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>903.2713495332425</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>648.5868613273557</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>359.1696912903951</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,13 +6712,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1308.854947839649</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1019.726309053207</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>765.0418208473204</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>475.6246508103599</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,7 +7034,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1212.643894689791</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1212.643894689791</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>923.515255903349</v>
       </c>
       <c r="V37" t="n">
-        <v>1044.751733905552</v>
+        <v>923.515255903349</v>
       </c>
       <c r="W37" t="n">
-        <v>755.3345638685918</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="X37" t="n">
-        <v>527.3450129705744</v>
+        <v>634.0980858663885</v>
       </c>
       <c r="Y37" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7335,19 +7335,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
         <v>1460.082827585746</v>
@@ -7359,10 +7359,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7390,19 +7390,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7411,19 +7411,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7496,22 +7496,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W43" t="n">
-        <v>241.9805482336712</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7648,13 +7648,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.3089140050929</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.3089140050929</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1133.156678913841</v>
+        <v>933.2366688293934</v>
       </c>
       <c r="W46" t="n">
-        <v>843.7395088768801</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="X46" t="n">
-        <v>615.7499579788628</v>
+        <v>643.8194987924328</v>
       </c>
       <c r="Y46" t="n">
-        <v>394.9573788353326</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627457</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814756</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>234.4116509503166</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,13 +10202,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>73.53204524670059</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776761</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11144,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>26.45108050686531</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>81.50027888811988</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.4685512816245</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>84.01919513971424</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23721,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>14.74113413690284</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>137.6235786063876</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>107.0187247748018</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>4.434042971560302</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,10 +25125,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>33.38685156731836</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>24.4755102779655</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>88.7521044365788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338579</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>51.56266414401857</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.52707137383445</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>732368.0593896025</v>
+        <v>732368.0593896026</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>732368.0593896026</v>
+        <v>732368.0593896027</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>732368.0593896027</v>
+        <v>732368.0593896025</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="L2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541048</v>
       </c>
       <c r="N2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="O2" t="n">
         <v>664749.401554105</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
         <v>664749.4015541049</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230237</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
@@ -26441,7 +26441,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-149432.2302151388</v>
+        <v>-149432.2302151389</v>
       </c>
       <c r="C6" t="n">
         <v>440535.6489994054</v>
       </c>
       <c r="D6" t="n">
-        <v>440535.6489994053</v>
+        <v>440535.6489994054</v>
       </c>
       <c r="E6" t="n">
-        <v>17323.90231646798</v>
+        <v>18201.0344502175</v>
       </c>
       <c r="F6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="G6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.070927114</v>
       </c>
       <c r="H6" t="n">
-        <v>542483.9387933643</v>
+        <v>543361.0709271135</v>
       </c>
       <c r="I6" t="n">
-        <v>542483.9387933641</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="J6" t="n">
-        <v>366060.7196007713</v>
+        <v>366937.8517345207</v>
       </c>
       <c r="K6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271136</v>
       </c>
       <c r="L6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="M6" t="n">
-        <v>407682.923559527</v>
+        <v>408560.0556932764</v>
       </c>
       <c r="N6" t="n">
-        <v>542483.9387933643</v>
+        <v>543361.0709271138</v>
       </c>
       <c r="O6" t="n">
-        <v>542483.938793364</v>
+        <v>543361.070927114</v>
       </c>
       <c r="P6" t="n">
-        <v>542483.9387933642</v>
+        <v>543361.0709271138</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>212.1632600544587</v>
       </c>
       <c r="G2" t="n">
-        <v>280.1357731490763</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>81.13398864317803</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27593,16 +27593,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>12.03533246204699</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>247.6864607982531</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>148.8283177119011</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>136.7057146380968</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>120.50172456543</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>252.87933554131</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>53.1454267792825</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>150.0902543534226</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>108.5731239040509</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28101,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,10 +32071,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215733</v>
@@ -32083,7 +32083,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,10 +32092,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34064,10 +34064,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>363.8358297686024</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35506,7 +35506,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330542</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,16 +36597,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>384.9870895382559</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36913,7 +36913,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36922,13 +36922,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>280.6254601782252</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337003</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
